--- a/02_programme_task/xlsx_out/28.Hosea.xlsx
+++ b/02_programme_task/xlsx_out/28.Hosea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B194"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,991 +453,991 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The word of the Lord that came to Hosea, the son of Beeri, in the days of Uzziah, Jotham, Ahaz, and Hezekiah, kings of Judah, and in the days of Jeroboam the son of Joash, king of Israel. Hosea's Wife and Children 2</t>
+          <t>Hosea</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hosea 1:2</t>
+          <t>Hosea 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>When the Lord first spoke through Hosea, the Lord said to Hosea, Go, take to yourself a wife of whoredom and have children of whoredom, for the land commits great whoredom by forsaking the Lord . 3</t>
+          <t>The word of the Lord that came to Hosea, the son of Beeri, a in the days of Uzziah, Jotham, Ahaz, and Hezekiah, kings of Judah, and in the days of b Jeroboam the son of Joash, king of Israel. Hosea s Wife and Children</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hosea 1:3</t>
+          <t>Hosea 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>So he went and took Gomer, the daughter of Diblaim, and she conceived and bore him a son. 4</t>
+          <t>When the Lord first spoke through Hosea, the Lord said to Hosea, c Go, take to yourself a wife of whoredom and have d children of whoredom, for e the land commits great whoredom by forsaking the Lord.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hosea 1:4</t>
+          <t>Hosea 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>And the Lord said to him, Call his name Jezreel, for in just a little while I will punish the house of Jehu for the blood of Jezreel, and I will put an end to the kingdom of the house of Israel. 5</t>
+          <t>So he went and took Gomer, the daughter of Diblaim, and she conceived and bore him a son.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hosea 1:5</t>
+          <t>Hosea 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>And on that day I will break the bow of Israel in the Valley of Jezreel. 6</t>
+          <t>And the Lord said to him, Call his name Jezreel, for in just a little while f I will punish the house of Jehu for the blood of Jezreel, and g I will put an end to the kingdom of the house of Israel.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hosea 1:6</t>
+          <t>Hosea 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>She conceived again and bore a daughter. And the Lord said to him, Call her name No Mercy, for I will no more have mercy on the house of Israel, to forgive them at all. 7</t>
+          <t>And on that day h I will break the bow of Israel i in the Valley of Jezreel.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hosea 1:7</t>
+          <t>Hosea 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>But I will have mercy on the house of Judah, and I will save them by the Lord their God. I will not save them by bow or by sword or by war or by horses or by horsemen. 8</t>
+          <t>She conceived again and bore a daughter. And the Lord said to him, j Call her name No Mercy, for k I will no more have mercy on the house of Israel, to forgive them at all.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hosea 1:8</t>
+          <t>Hosea 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>When she had weaned No Mercy, she conceived and bore a son. 9</t>
+          <t>But l I will have mercy on the house of Judah, and I will save them by the Lord their God. I m will not save them by bow or by sword or by war or by horses or by horsemen.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hosea 1:9</t>
+          <t>Hosea 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>And the Lord said, Call his name Not My People, for you are not my people, and I am not your God.</t>
+          <t>When she had weaned No Mercy, she conceived and bore a son.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hosea 1:11</t>
+          <t>Hosea 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>And the children of Judah and the children of Israel shall be gathered together, and they shall appoint for themselves one head. And they shall go up from the land, for great shall be the day of Jezreel. Israel's Unfaithfulness Punished 2 1</t>
+          <t>And the Lord said, n Call his name Not My People, for o you are not my people, and I am not your God.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hosea 2:1</t>
+          <t>Hosea 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Say to your brothers, You are my people, and to your sisters, You have received mercy. 1 -</t>
+          <t>Yet p the number of the children of Israel shall be q like the sand of the sea, which cannot be measured or numbered. r And s in the place where it was said to them, o You are not my people, it shall be said to them, t Childre n of u the living God.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hosea 2:2</t>
+          <t>Hosea 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Plead with your mother, plea16 d16 - for she is not my wife, and I am not her husban d16 - that she put away her whoring from her face, - and her adultery from between her breasts; -</t>
+          <t>And v the children of Judah and the children of Israel shall be gathered together, and w they shall appoint for themselves one head. And they shall go up from the land, for great shall be the day of Jezreel. Israel s Unfaithfulness Punished</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hosea 2:3</t>
+          <t>Hosea 2:1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>lest I strip her naked - and make her as in the day she was born, - and make her like a wilderness, - and make her like a parched land, - and kill her with thirst. -</t>
+          <t>Say to your brothers, x You are my people, and to your sisters, y You have received mercy.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hosea 2:4</t>
+          <t>Hosea 2:2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Upon her children also I will have no mercy, - because they are children of whoredom. -</t>
+          <t>Plead with your mother, plea d for z she is not my wife, and I am not her husban d that she put away a her whoring from her face, and her adultery from between her breasts;</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hosea 2:5</t>
+          <t>Hosea 2:3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>For their mother has played the whore; - she who conceived them has acted shamefully. - For she said, I will go after my lovers, - who give me my bread and my water, my wool and my flax, my oil and my drink. -</t>
+          <t>lest b I strip her naked and make her as c in the day she was born, and d make her like a wilderness, and make her like a parched land, and kill her with thirst.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hosea 2:6</t>
+          <t>Hosea 2:4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Therefore I will hedge up he16 r way with thorns, - and I will build a wall against her, so that she cannot find her paths. -</t>
+          <t>e Upon her children also I will have no mercy, f because they are children of whoredom.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hosea 2:7</t>
+          <t>Hosea 2:5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>She shall pursue her lovers - but not overtake them, - and she shall seek them - but shall not find them. - Then she shall say, - I will go and return to my first husband, for it was better for me then than now. -</t>
+          <t>For g their mother has played the whore; she who conceived them has acted shamefully. For h she said, I will go after my lovers, who i give me my bread and my water, my wool and my flax, my oil and my drink.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hosea 2:8</t>
+          <t>Hosea 2:6</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>And she did not know - that it was I who gave her - the grain, the wine, and the oil, - and who lavished on her silver and gold, - which they used for Baal. -</t>
+          <t>Therefore j I will hedge up he r way with thorns, and k I will build a wall against her, so that she cannot find her paths.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hosea 2:9</t>
+          <t>Hosea 2:7</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Therefore I will take back - my grain in its time, and my wine in its season, - and I will take away my wool and my flax, - which were to cover her nakedness. -</t>
+          <t>She shall pursue her lovers but not overtake them, and she shall seek them but shall not find them. l Then she shall say, I will go and return to m my first husband, l for it was better for me then than now.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hosea 2:10</t>
+          <t>Hosea 2:8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Now I will uncover her lewdness - in the sight of her lovers, and no one shall rescue her out of my hand. -</t>
+          <t>And n she did not know that it was o I who gave her p the grain, the wine, and the oil, and who lavished on q her silver and gold, r which they used for Baal.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hosea 2:11</t>
+          <t>Hosea 2:9</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>And I will put an end to all her mirth, - her feasts, her new moons, her Sabbaths, and all her appointed feasts. -</t>
+          <t>Therefore s I will take back my grain in its time, and my wine in its season, and s I will take away my wool and my flax, which were to cover her nakedness.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hosea 2:12</t>
+          <t>Hosea 2:10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>And I will lay waste her vines and her fig trees, - of which she said, - These are my wages, - which my lovers have given me. - I will make them a forest, - and the beasts of the field shall devour them. -</t>
+          <t>Now t I will uncover her lewdness in the sight of her lovers, and no one shall rescue her out of my hand.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hosea 2:13</t>
+          <t>Hosea 2:11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>And I will punish her for the feast days of the Baals - when she burned offerings to them - and adorned herself with her ring and jewelry, - and went after her lovers - and forgot me, declares the Lord . The Lord15's Mercy on Israel -</t>
+          <t>u And I will put an end to all her mirth, her feasts, her v new moons, her v Sabbaths, and all her w appointed feasts.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hosea 2:14</t>
+          <t>Hosea 2:12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Therefore, behold, I will allure her, - and bring her into the wilderness, and speak tenderly to her. -</t>
+          <t>And x I will lay waste her vines and her fig trees, y of which she said, These are z my wages, which my lovers have given me. I will make them a forest, a and the beasts of the field shall devour them.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hosea 2:15</t>
+          <t>Hosea 2:13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>And there I will give her her vineyards - and make the Valley of Acho16 r a door of hope. - And there she shall answer as in the days of her youth, - as at the time when she came out of the land of Egypt.</t>
+          <t>And b I will punish her for c the feast days of the Baals when she burned offerings to them and d adorned herself with her ring and jewelry, and went after her lovers and forgot me, declares the Lord. The Lord s Mercy on Israel</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hosea 2:16</t>
+          <t>Hosea 2:14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>And in that day, declares the Lord , you will call me My Husband, and no long173 er will you call me My Baal.</t>
+          <t>Therefore, behold, I will allure her, and e bring her into the wilderness, and f speak tenderly to her.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hosea 2:17</t>
+          <t>Hosea 2:15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>For I will remove the names of the Baals from her mouth, and they shall be remembered by name no more.</t>
+          <t>And there I will give her her vineyards and make the Valley of Acho r a door of hope. And there she shall answer g as in the days of her youth, as at the time when she came out of the land of Egypt.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hosea 2:18</t>
+          <t>Hosea 2:16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>And I will make for them a cov173 enant on that day with the beasts of the field, the birds of the heavens, and the creeping things of the ground. And I will abolis16 h the bow, the sword, and war from the land, and I will make you lie down in safety.</t>
+          <t>And h in that day, declares the Lord, you will call me My Husband, and no long?er will you call me My Baal.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hosea 2:19</t>
+          <t>Hosea 2:17</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>And I will betroth you to me forever. I will betroth you to me in righteousness and in justice, in steadfast love and in mercy.</t>
+          <t>For i I will remove the names of the Baals from her mouth, and they shall be remembered by name no more.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hosea 2:21</t>
+          <t>Hosea 2:18</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>And in that day I will answer, declares the Lord , - I will answer the heavens, and they shall answer the earth, -</t>
+          <t>And j I will make for them a cov?enant on that day with the beasts of the field, the birds of the heavens, and the creeping things of the ground. And k I will abolis h the bow, the sword, and war from the land, and I will make you lie down in l safety.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hosea 2:22</t>
+          <t>Hosea 2:19</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>and the earth shall answer the grain, the wine, and the oil, - and they shall answer Jezreel,</t>
+          <t>And I will betroth you to me m forever. n I will betroth you to me in righteousness and in justice, in steadfast love and in mercy.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hosea 2:23</t>
+          <t>Hosea 2:20</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>and I will sow her for myself in the land. - And I will have mercy on No Mercy, - and I will say to Not My People, You are my people ; - and he shall say, You are my God. Hosea Redeems His Wife 3</t>
+          <t>n I will betroth you to me in faithfulness. And o you shall know the Lord.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hosea 3:1</t>
+          <t>Hosea 2:21</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>And the Lord said to me, Go again, love a woman who is loved by another man and is an adulteress, even as the Lord loves the children of Israel, though they turn to other gods and love cakes of raisins. 2</t>
+          <t>And p in that day q I will answer, declares the Lord, I will answer the heavens, and they shall answer the earth,</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hosea 3:2</t>
+          <t>Hosea 2:22</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>So I bought her for fifteen shekels of silver and a homer and a lethec16 h of barley. 3</t>
+          <t>and the earth shall answer the grain, the wine, and the oil, and they shall answer r Jezreel,</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hosea 3:3</t>
+          <t>Hosea 2:23</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>And I said to her, You must dwell as mine for many days. You shall not play the whore, or belong to another man; so will I also be to you. 4</t>
+          <t>and s I will sow her for myself in the land. And t I u will have mercy on No Mercy, and v I will say to Not My People,</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Hosea 3:4</t>
+          <t>Hosea 2:24</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>For the children of Israel shall dwell many days without king or prince, without sacrifice or pillar, without ephod or household gods. 5</t>
+          <t>w You are my people; and he shall say, You are my God. Hosea Redeems His Wife</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hosea 3:5</t>
+          <t>Hosea 3:1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Afterward the children of Israel shall return and seek the Lord their God, and David their king, and they shall come in fear to the Lord and to his goodness in the latter days. The Lord15 Accuses Israel - 4 -</t>
+          <t>And the Lord said to me, x Go again, love a woman who is loved by another man and is an adulteress, even as the Lord loves the children of Israel, though they turn to other gods and love cakes of raisins.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hosea 4:1</t>
+          <t>Hosea 3:2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hear the word of the Lord , O hildren of Israel, - for the Lord has a controversy with the inhabitants of the land. - There is no faithfulness or steadfast love, - and no knowledge of God in the land; -</t>
+          <t>So I bought her for fifteen shekels of silver and a y homer and a lethec h of barley.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Hosea 4:2</t>
+          <t>Hosea 3:3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>there is swearing, lying, murder, stealing, and committing adultery; - they break all bounds, and bloodshed follows bloodshed. -</t>
+          <t>And I said to her, You must z dwell as mine for many days. You shall not play the whore, or belong to another man; so will I also be to you.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hosea 4:3</t>
+          <t>Hosea 3:4</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Therefore the land mourns, - and all who dwell in it languish, - and also the beasts of the field - and the birds of the heavens, - and even the fish of the sea are taken away. -</t>
+          <t>For the children of Israel z shall dwell many days a without king or prince, b without sacrifice or c pillar, without d ephod or e household gods.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Hosea 4:4</t>
+          <t>Hosea 3:5</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Yet let no one contend, - and let none accuse, for with you is my contention, O priest. -</t>
+          <t>Afterward f the children of Israel shall return and g seek the Lord their God, and h David their king, i and they shall come in fear to the Lord and to his goodness in the j latter days. The Lord Accuses Israel 4:1 k Hear the word of the Lord, O children of Israel, for l the Lord has a controversy with the inhabitants of the land. There is no faithfulness or steadfast love, and m no knowledge of God in the land;</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Hosea 4:5</t>
+          <t>Hosea 4:2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>You shall stumble by day; - the prophet also shall stumble with you by night; and I will destroy your mother. -</t>
+          <t>n there is swearing, lying, murder, stealing, and committing adultery; they break all bounds, and o bloodshed follows bloodshed.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hosea 4:6</t>
+          <t>Hosea 4:3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>My people are destroyed for lack of knowledge; - because you have rejected knowledge, I reject you from being a priest to me. - And since you have forgotten the law of your God, - I lso will forget your children. -</t>
+          <t>Therefore p the land mourns, and all who dwell in it languish, q and also the beasts of the field and the birds of the heavens, r and even the fish of the sea are taken away.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Hosea 4:7</t>
+          <t>Hosea 4:4</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The more they increased, - the more they sinned against me; I will change their glory into shame. -</t>
+          <t>s Yet let no one contend, and let none accuse, for with you is t my contention, O priest.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Hosea 4:8</t>
+          <t>Hosea 4:5</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>They feed on the si16 n of my people; - they are greedy for their iniquity. -</t>
+          <t>You shall stumble by day; the prophet also shall stumble with you by night; and I will destroy u your mother.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Hosea 4:9</t>
+          <t>Hosea 4:6</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>And it shall be like people, like priest; - I will punish them for their ways and repay them for their deeds. -</t>
+          <t>My people are destroyed v for lack of knowledge; w because you have rejected knowledge, I reject you x from being a priest to me. And since you have forgotten the law of your God, y I also will forget your children.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hosea 4:10</t>
+          <t>Hosea 4:7</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>They shall eat, but not be satisfied; - they shall play the whore, but not multiply, - because they have forsaken the Lord - to cherish</t>
+          <t>z The more they increased, the more they sinned against me; a I will change their glory into shame.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hosea 4:11</t>
+          <t>Hosea 4:8</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>whoredom, wine, and new wine, - which take away the understanding. -</t>
+          <t>b They feed on the si n of my people; they are greedy for their iniquity.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Hosea 4:12</t>
+          <t>Hosea 4:9</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>My people inquire of a piece of wood, - and their walking staff gives them oracles. - For a spirit of whoredom has led them astray, - and they have left their God to play the whore. -</t>
+          <t>c And it shall be like people, like priest; I will punish them for their ways and repay them for their deeds.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Hosea 4:13</t>
+          <t>Hosea 4:10</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>They sacrifice on the tops of the mountains - and burn offerings on the hills, - under oak, poplar, and terebinth, - because their shade is good. - Therefore your daughters play the whore, - and your brides commit adultery. -</t>
+          <t>d They shall eat, but not be satisfied; they shall play the whore, but not multiply, because they have forsaken the Lord to cherish</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Hosea 4:14</t>
+          <t>Hosea 4:11</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>I will not punish your daughters when they play the whore, - nor your brides when they commit adultery; - for the men themselves go aside with prostitutes - and sacrifice with cult prostitutes, - and a people without understanding shall come to ruin. -</t>
+          <t>whoredom, wine, and new wine, which e take away the understanding.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Hosea 4:15</t>
+          <t>Hosea 4:12</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Though you play the whore, O Israel, - let not Judah become guilty. - Enter not into Gilgal, - nor go up to Beth- aven, - and swear not, As the Lord lives. -</t>
+          <t>My people f inquire of a piece of wood, and their walking staff gives them oracles. For g a spirit of whoredom has led them astray, and they have left their God to play the whore.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Hosea 4:16</t>
+          <t>Hosea 4:13</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Like a stubborn heifer, - Israel is stubborn; - can the Lord now feed them - like a lamb in a broad pasture -</t>
+          <t>h They sacrifice on the tops of the mountains and burn offerings on the hills, i under oak, poplar, and terebinth, because their shade is good. Therefore your daughters play the whore, and your brides commit adultery.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Hosea 4:17</t>
+          <t>Hosea 4:14</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ephraim is joined to idols; - leave him alone. -</t>
+          <t>I will not punish your daughters when they play the whore, nor your brides when they commit adultery; for j the men themselves go aside with prostitutes and sacrifice with k cult prostitutes, and a people l without understanding shall come to ruin.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Hosea 4:18</t>
+          <t>Hosea 4:15</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>When their drink is gone, they give themselves to whoring; - their ruler16's 1 dearly love shame. -</t>
+          <t>Though you play the whore, O m Israel, let not m Judah become guilty. n Enter not into o Gilgal, nor go up to p Beth-aven, and swear not, As the Lord lives.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Hosea 4:19</t>
+          <t>Hosea 4:16</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A wind has wrapped the16 m in its wings, - and they shall be ashamed because of their sacrifices. Punishment Coming for Israel and Judah - 5 -</t>
+          <t>Like a stubborn heifer, Israel is stubborn; can the Lord now feed them like a lamb in a broad pasture?</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Hosea 5:1</t>
+          <t>Hosea 4:17</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Hear this, O priests! - Pay attention, O house of Israel! - Give ear, O house of the king! - For the judgment is for you; - for you have been a snare at Mizpah - and a net spread upon Tabor. -</t>
+          <t>q Ephraim is joined to idols; r leave him alone.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hosea 5:2</t>
+          <t>Hosea 4:18</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>And the revolters have gone deep into slaughter, - but I will discipline all of them. -</t>
+          <t>When their drink is gone, they give themselves to whoring; s their ruler s dearly love shame.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Hosea 5:3</t>
+          <t>Hosea 4:19</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>I know Ephraim, - and Israel is not hidden from me; - for now, O phraim, you have played the whore; - Israel is defiled. -</t>
+          <t>t A wind has wrapped the m in its wings, and they shall u be ashamed because of their sacrifices. Punishment Coming for Israel and Judah 5:1 v Hear this, O priests! Pay attention, O house of Israel! Give ear, O house of the king! For the judgment is for you; for w you have been a snare at Mizpah and a net spread upon x Tabor.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Hosea 5:4</t>
+          <t>Hosea 5:2</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Their deeds do not permit them - to return to their God. - For the spirit of whoredom is within them, - and they know not the Lord . -</t>
+          <t>And y the revolters z have gone deep into slaughter, but a I will discipline all of them.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Hosea 5:5</t>
+          <t>Hosea 5:3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>The pride of Israel testifies to his face; - Israel and Ephraim shall stumble in his guilt; Judah also shall stumble with them. -</t>
+          <t>b I know Ephraim, and Israel is not hidden from me; for now, O Ephraim, you have played the whore; Israel is defiled.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hosea 5:6</t>
+          <t>Hosea 5:4</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>With their flocks and herds they shall go - to seek the Lord , - but they will not find him; - he has withdrawn from them. -</t>
+          <t>c Their deeds do not permit them to return to their God. For d the spirit of whoredom is within them, and they know not the Lord.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Hosea 5:7</t>
+          <t>Hosea 5:5</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>They have dealt faithlessly with the Lord ; - for they have borne alien children. - Now the new moon shall devour them with their fields. -</t>
+          <t>e The pride of Israel testifies to his face; Israel and f Ephraim shall stumble in his guilt; f Judah also shall stumble with them.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Hosea 5:8</t>
+          <t>Hosea 5:6</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Blow the horn in Gibeah, - the trumpet in Ramah. - Sound the alarm at Beth- aven; - we follow you, O Benjamin! -</t>
+          <t>g With their flocks and herds they shall go to seek the Lord, g but they will not find him; h he has withdrawn from them.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Hosea 5:9</t>
+          <t>Hosea 5:7</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ephraim shall become a desolation - in the day of punishment; - among the tribes of Israel - I make known what is sure. -</t>
+          <t>i They have dealt faithlessly with the Lord; for they have borne alien children. Now the new moon shall devour them with their fields.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Hosea 5:10</t>
+          <t>Hosea 5:8</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>The princes of Judah have become - like those who move the landmark; - upon them I will pour out - my wrath like water. -</t>
+          <t>j Blow the horn in k Gibeah, the trumpet in l Ramah. Sound the alarm at m Beth-aven; we follow you, O Benjamin!</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hosea 5:11</t>
+          <t>Hosea 5:9</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ephraim is oppressed, crushed in judgment, - because he was determined to go after filth. -</t>
+          <t>Ephraim shall become a desolation in the day of punishment; among the tribes of Israel I make known what is sure.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Hosea 5:12</t>
+          <t>Hosea 5:10</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>But I am like a moth to Ephraim, - and like dry rot to the house of Judah. -</t>
+          <t>The princes of Judah have become like n those who move the landmark; upon them I will pour out my wrath like water.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Hosea 5:13</t>
+          <t>Hosea 5:11</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>When Ephraim saw his sickness, - and Judah his wound, - then Ephraim went to Assyria, - and sent to the great king. - But he is not able to cure you - or heal your wound. -</t>
+          <t>Ephraim is o oppressed, crushed in judgment, because he was determined to go after filth.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Hosea 5:14</t>
+          <t>Hosea 5:12</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>For I will be like a lion to Ephraim, - and like a young lion to the house of Judah. - I, even I, will tear and go away; - I will carry off, and no one shall rescue. -</t>
+          <t>But I am p like a moth to Ephraim, and p like dry rot to the house of Judah.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Hosea 5:15</t>
+          <t>Hosea 5:13</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>I will return again to my place, - until they acknowledge their guilt and seek my face, - and in their distress earnestly seek me. Israel and Judah Are Unrepentant - 6 -</t>
+          <t>When Ephraim saw his sickness, and Judah q his wound, then Ephraim went r to Assyria, and sent to the great king. s But he is not able to cure you or heal q your wound.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Hosea 6:1</t>
+          <t>Hosea 5:14</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Come, let us return to the Lord ; - for he has torn us, that he may heal us; - he has struck us down, and he will bind us up. -</t>
+          <t>For I will be t like a lion to u Ephraim, and like a young lion to the house of u Judah. v I, even I, will tear and go away; I will carry off, and no one shall rescue.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hosea 6:2</t>
+          <t>Hosea 5:15</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>After two days he will revive us; - on the third day he will raise us up, that we may live before him. -</t>
+          <t>w I will return again to my place, until they acknowledge their guilt and seek my face, and x in their distress earnestly seek me. Israel and Judah Are Unrepentant 6:1 Come, let us y return to the Lord; for z he has torn us, that he may heal us; he has struck us down, and a he will bind us up.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Hosea 6:3</t>
+          <t>Hosea 6:2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Let us know; let us press on to know the Lord ; - his going out is sure as the dawn; - he will come to us as the showers, - as the spring rains that water the earth. -</t>
+          <t>After two days b he will revive us; on the third day he will raise us up, that we may live before him.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hosea 6:4</t>
+          <t>Hosea 6:3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>What shall I do with you, O Ephraim - What shall I do with you, O Judah - Your love is like a morning cloud, - like the dew that goes early away. -</t>
+          <t>c Let us know; c let us press on to know the Lord; d his going out is sure as the dawn; he will come to us e as the showers, f as the spring rains that water the earth.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hosea 6:5</t>
+          <t>Hosea 6:4</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Therefore I have hewn them by the prophets; - I have slain them by the words of my mouth, and my judgment goes forth as the light. -</t>
+          <t>What shall I do with you, g O h Ephraim? What shall I do with you, O h Judah? Your love is i like a morning cloud, i like the dew that goes early away.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Hosea 6:6</t>
+          <t>Hosea 6:5</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>For I sire steadfast lov16 e and not sacrifice, - the knowledge of God rather than burnt offerings. -</t>
+          <t>Therefore I have hewn them by the prophets; I have slain them j by the words of my mouth, and my judgment goes forth as the light.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Hosea 6:7</t>
+          <t>Hosea 6:6</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>But like Adam they transgressed the covenant; - there they dealt faithlessly with me. -</t>
+          <t>For k I desire steadfast lov e and not sacrifice, l the knowledge of God rather than burnt offerings.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Hosea 6:8</t>
+          <t>Hosea 6:7</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Gilead is a city of evildoers, - tracked with blood. -</t>
+          <t>But m like Adam they n transgressed the covenant; o there they dealt faithlessly with me.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hosea 6:9</t>
+          <t>Hosea 6:8</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>As robbers lie in wait for a man, - so the priests band together; - they murder on the way to Shechem; - they commit villainy. -</t>
+          <t>p Gilead is a city of evildoers, q tracked with blood.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Hosea 6:10</t>
+          <t>Hosea 6:9</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>In the house of Israel I have seen a horrible thing; - Ephraim's whoredom is there; Israel is defiled. -</t>
+          <t>As robbers r lie in wait for a man, so the priests band together; they murder on the way to s Shechem; they commit villainy.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Hosea 6:11</t>
+          <t>Hosea 6:10</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>For you also, O Judah, a harvest is appointed. - When I restore the fortunes of my people, - 7 -</t>
+          <t>In the house of Israel I have seen a horrible thing; t Ephraim s whoredom is there; u Israel is defiled.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Hosea 7:1</t>
+          <t>Hosea 6:11</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>when I would heal Israel, - the iniquity of Ephraim is revealed, - and the evil deeds of Samaria, - for they deal falsely; - the thief breaks in, and the bandits raid outside. -</t>
+          <t>For you also, O u Judah, v a harvest is appointed. When w I restore the fortunes of my people, 7:1 x when I would heal Israel, the iniquity of Ephraim is revealed, and the evil deeds of y Samaria, for z they deal falsely; the thief breaks in, and the bandits raid outside.</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>But they do not consider - that I remember all their evil. - Now their deeds surround them; - they are before my face. -</t>
+          <t>But they do not consider that a I remember all their evil. Now b their deeds surround them; c they are before my face.</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>By their evil they make the king glad, - and the princes by their treachery. -</t>
+          <t>By their evil d they make d the king glad, and the princes by their treachery.</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>They are all adulterers; - they are like a heated oven - whose baker ceases to stir the fire, - from the kneading of the dough until it is leavened. -</t>
+          <t>e They are all adulterers; they are like a heated oven whose baker ceases to stir the fire, from the kneading of the dough until it is leavened.</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>On the day of our king, the princes - became sick with the heat of wine; he stretched out his hand with mockers. -</t>
+          <t>On the day of f our king, the princes became sick with the heat of wine; he stretched out his hand with mockers.</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>For with hearts like an oven they approach their intrigue; - all night their anger smolders; in the morning it blazes like a flaming fire. -</t>
+          <t>For with hearts like an oven g they approach their intrigue; all night their anger smolders; in the morning it blazes like a flaming fire.</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>All of them are hot as an oven, - and they devour their rulers. - All their kings have fallen, - and none of them calls upon me. -</t>
+          <t>All of them are hot as an oven, and they devour their rulers. All h their kings i have fallen, and none of them calls upon me.</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ephraim mixes himself with the peoples; - Ephraim is a cake not turned. -</t>
+          <t>Ephraim j mixes himself with the peoples; Ephraim is a cake not turned.</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Strangers devour his strength, - and he knows it not; - gray hairs are sprinkled upon him, - and he knows it not. -</t>
+          <t>k Strangers devour his strength, and l he knows it not; gray hairs are sprinkled upon him, and l he knows it not.</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>The pride of Israel testifies to his face; - yet they do not return to the Lord their God, - nor seek him, for all this. -</t>
+          <t>m The pride of Israel testifies to his face; n yet they do not return to the Lord their God, nor seek him, for all this.</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ephraim is like a dove, - silly and without sense, calling to Egypt, going to Assyria. -</t>
+          <t>Ephraim is like a dove, o silly and without sense, calling to p Egypt, going to q Assyria.</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>As they go, I will spread over them my net; - I will bring them down like birds of the heavens; - I will discipline them according to the report made to their congregation. -</t>
+          <t>As they go, r I will spread over them my net; I will bring them down like birds of the heavens; s I will discipline them t according to the report made to their congregation.</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Woe to them, for they have strayed from me! - Destruction to them, for they have rebelled against me! - I would redeem them, - but they speak lies against me. -</t>
+          <t>u Woe to them, for they have strayed from me! Destruction to them, for they have rebelled against me! v I would redeem them, but w they speak lies against me.</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>They do not cry to me from the heart, - but they wail upon their beds; - for grain and wine they gash themselves; - they rebel against me. -</t>
+          <t>x They do not cry to me from the heart, but y they wail upon their beds; for grain and wine they gash themselves; they rebel against me.</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Although I trained and strengthened their arms, - yet they devise evil against me. -</t>
+          <t>Although z I trained and strengthened their arms, yet they devise evil against me.</t>
         </is>
       </c>
     </row>
@@ -1617,1147 +1617,1087 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>They return, but not upward; - they are like a treacherous bow; - their princes shall fall by the sword - because of the insolence of their tongue. - This shall be their derision in the land of Egypt. Israel Will Reap the Whirlwind - 8 -</t>
+          <t>They a return, but not upward; they are b like a treacherous bow; their princes shall fall by the sword because of c the insolence of their tongue. This shall be their derision d in the land of Egypt. Israel Will Reap the Whirlwind 8:1 Set e the trumpet to your lips! One f like a vulture is over the house of the Lord, because g they have transgressed my covenant and rebelled against my law.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Hosea 8:1</t>
+          <t>Hosea 8:2</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Set the trumpet to your lips! - One like a vulture is over the house of the Lord , - because they have transgressed my covenant - and rebelled against my law. -</t>
+          <t>To me they cry, h My God, w e Israe l know you.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Hosea 8:2</t>
+          <t>Hosea 8:3</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>To me they cry, - My God, w e16 Israe16 l know you. -</t>
+          <t>Israel has spurned the good; the enemy shall pursue him.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Hosea 8:3</t>
+          <t>Hosea 8:4</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Israel has spurned the good; - the enemy shall pursue him. -</t>
+          <t>i They made kings, j but not through me. They set up princes, but I knew it not. With their silver and gold they made idols for their own destruction.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Hosea 8:4</t>
+          <t>Hosea 8:5</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>They made kings, but not through me. - They set up princes, but I knew it not. - With their silver and gold they made idols - for their own destruction. -</t>
+          <t>k I hav e spurned your calf, O Samaria. My anger burns against them. l How long will they be incapable of innocence?</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Hosea 8:5</t>
+          <t>Hosea 8:6</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>I hav16 e spurned your calf, O Samaria. - My anger burns against them. - How long will they be incapable of innocence</t>
+          <t>For it is from Israel; a craftsman made it; it is not God. k The calf of Samaria m shall be broken to pieces.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Hosea 8:6</t>
+          <t>Hosea 8:7</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>For it is from Israel; a craftsman made it; - it is not God. - The calf of Samaria - shall be broken to pieces. -</t>
+          <t>For n they sow the wind, and they shall reap the whirlwind. The standing grain has no heads; it shall yield no flour; if it were to yield, o strangers would devour it.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Hosea 8:7</t>
+          <t>Hosea 8:8</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>For they sow the wind, - and they shall reap the whirlwind. - The standing grain has no heads; - it shall yield no flour; - if it were to yield, - strangers would devour it. -</t>
+          <t>p Israel is swallowed up; already they are among the nations as q a useless vessel.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Hosea 8:8</t>
+          <t>Hosea 8:9</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Israel is swallowed up; - already they are among the nations as a useless vessel. -</t>
+          <t>For r they have gone up to Assyria, s a wild donkey wandering alone; Ephraim has hired lovers.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Hosea 8:9</t>
+          <t>Hosea 8:10</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>For they have gone up to Assyria, - a wild donkey wandering alone; Ephraim has hired lovers. -</t>
+          <t>Though they hire allies among the nations, I will soon gather them up. And t the king and princes u shall soon writhe because of the tribute.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Hosea 8:10</t>
+          <t>Hosea 8:11</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Though they hire allies among the nations, - I will soon gather them up. - And the king and princes shall soon writhe - because of the tribute. -</t>
+          <t>Because Ephraim v has multiplied altars for sinning, they have become to him altars for sinning.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Hosea 8:11</t>
+          <t>Hosea 8:12</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Because Ephraim has multiplied altars for sinning, - they have become to him altars for sinning. -</t>
+          <t>w Were I to write for him my laws by the ten thousands, they would be regarded as a strange thing.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Hosea 8:12</t>
+          <t>Hosea 8:13</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Were I to write for him my laws by the ten thousands, - they would be regarded as a strange thing. -</t>
+          <t>As for my sacrificial offerings, x they sacrifice meat and eat it, but the Lord does not accept them. y Now he will remember their iniquity and punish their sins; z they shall return to Egypt.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Hosea 8:13</t>
+          <t>Hosea 8:14</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>As for my sacrificial offerings, - they sacrifice meat and eat it, but the Lord does not accept them. - Now he will remember their iniquity - and punish their sins; they shall return to Egypt. -</t>
+          <t>For a Israel has forgotten b his Maker and c built palaces, and a Judah has multiplied fortified cities; so d I will send a fire upon his cities, and it shall devour her strongholds. The Lord Will Punish Israel 9:1 Rejoice not, O Israel! Exult not like the peoples; e for you have played the whore, forsaking your God. f You have loved a prostitute s wages on all threshing floors.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Hosea 8:14</t>
+          <t>Hosea 9:2</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>For Israel has forgotten his Maker - and built palaces, - and Judah has multiplied fortified cities; - so I will send a fire upon his cities, - and it shall devour her strongholds. The Lord15 Will Punish Israel - 9 -</t>
+          <t>g Threshing floor and wine vat shall not feed them, and g the new wine shall fail them.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Hosea 9:1</t>
+          <t>Hosea 9:3</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Rejoice not, O Israel! - Exult not like the peoples; - for you have played the whore, forsaking your God. - You have loved a prostitute's wages on all threshing floors. -</t>
+          <t>They shall not remain in h the land of the Lord, but i Ephraim shall return to Egypt, and j they shall eat unclean food in Assyria.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Hosea 9:2</t>
+          <t>Hosea 9:4</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Threshing floor and wine vat shall not feed them, - and the new wine shall fail them. -</t>
+          <t>k They shall not pour drink offerings of wine to the Lord, l and their sacrifices shall not please him. It shall be like m mourners bread to them; all who eat of it shall be defiled; for their bread shall be for their hunger only; n it shall not come to the house of the Lord.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Hosea 9:3</t>
+          <t>Hosea 9:5</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>They shall not remain in the land of the Lord , - but Ephraim shall return to Egypt, - and they shall eat unclean food in Assyria. -</t>
+          <t>o What will you do on the day of the appointed festival, and on the day of the feast of the Lord?</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Hosea 9:4</t>
+          <t>Hosea 9:6</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>They shall not pour drink offerings of wine to the Lord , - and their sacrifices shall not please him. - It shall be like mourners bread to them; - all who eat of it shall be defiled; - for their bread shall be for their hunger only; - it shall not come to the house of the Lord . -</t>
+          <t>For behold, they are going away from destruction; but p Egypt shall gather them; Memphis shall bury them. Nettles shall possess q their precious things of silver; r thorns shall be in their tents.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Hosea 9:5</t>
+          <t>Hosea 9:7</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>What will you do on the day of the appointed festival, - and on the day of the feast of the Lord -</t>
+          <t>s The days of punishment have come; the days of recompense have come; Israel shall know it. t The prophet is a fool; the man of the spirit is mad, because of your great iniquity and great hatred.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Hosea 9:6</t>
+          <t>Hosea 9:8</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>For behold, they are going away from destruction; - but Egypt shall gather them; Memphis shall bury them. - Nettles shall possess their precious things of silver; - thorns shall be in their tents. -</t>
+          <t>The prophet is u the watchman of Ephraim with my God; yet v a fowler s snare is on all his ways, and hatred in the house of his God.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Hosea 9:7</t>
+          <t>Hosea 9:9</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>The days of punishment have come; - the days of recompense have come; Israel shall know it. - The prophet is a fool; - the man of the spirit is mad, - because of your great iniquity - and great hatred. -</t>
+          <t>w They have deeply corrupted themselves as x in the days of Gibeah: w he will remember their iniquity; he will punish their sins.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hosea 9:8</t>
+          <t>Hosea 9:10</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>The prophet is the watchman of Ephraim with my God; - yet a fowler's snare is on all his ways, - and hatred in the house of his God. -</t>
+          <t>Like grapes in the wilderness, y I found Israel. Like the first fruit on the fig tree in its first season, I saw your fathers. But z they came to Baal-peor and a consecrated themselves to the thing of shame, and b became detestable like the thing they loved.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Hosea 9:9</t>
+          <t>Hosea 9:11</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>They have deeply corrupted themselves - as in the days of Gibeah: - he will remember their iniquity; - he will punish their sins. -</t>
+          <t>Ephraim s c glory shall fly away like a bir d d no birth, no pregnancy, no conception!</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Hosea 9:10</t>
+          <t>Hosea 9:12</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Like grapes in the wilderness, - I ound Israel. - Like the first fruit on the fig tree - in its first season, I saw your fathers. - But they came to Baal- peor - and consecrated themselves to the thing of shame, and became detestable like the thing they loved. -</t>
+          <t>e Even if they bring up children, I will bereave them till none is left. f Woe to them when g I depart from them!</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Hosea 9:11</t>
+          <t>Hosea 9:13</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ephraim's glory shall fly away like a bir16 d16 - no birth, no pregnancy, no conception! -</t>
+          <t>Ephraim, h as I have seen, was like a young pal m planted in a meadow; but e Ephraim must lead his children out to slaughter.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Hosea 9:12</t>
+          <t>Hosea 9:14</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Even if they bring up children, - I will bereave them till none is left. - Woe to them - when I part from them! -</t>
+          <t>Give them, O Lor d what will you give? Give them i a miscarrying womb and dry breasts.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Hosea 9:13</t>
+          <t>Hosea 9:15</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ephraim, as I have seen, was like a young pal16 m planted in a meadow; - but Ephraim must lead his children out to slaughter. -</t>
+          <t>Every evil of theirs is in j Gilgal; there I began to hate them. Because of the wickedness of their deeds I will drive them out of my house. I will love them no more; all k their princes are l rebels.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Hosea 9:14</t>
+          <t>Hosea 9:16</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Give them, O Lor - what will you give - Give them a miscarrying womb - and dry breasts. -</t>
+          <t>Ephraim is stricken; m their root is dried up; they shall bear no fruit. Even n though they give birth, e I will put their beloved children to death.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Hosea 9:15</t>
+          <t>Hosea 9:17</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Every evil of theirs is in Gilgal; - there I began to hate them. - Because of the wickedness of their deeds - I will drive them out of my house. - I will love them no more; - all their princes are rebels. -</t>
+          <t>o My God will reject them because they have not listened to him; p they shall be wanderers among the nations. 10:1 q Israel is a luxuriant vine that yields its fruit. The more his fruit increased, r the more altars he built; as his country improved, he improved his pillars.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hosea 9:16</t>
+          <t>Hosea 10:2</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Ephraim is stricken; - their root is dried up; they shall bear no fruit. - Even though they give birth, - I will put their beloved children to death. -</t>
+          <t>Their heart is false; now they must bear their guilt. The Lord will break down their altars and destroy their pillars.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Hosea 9:17</t>
+          <t>Hosea 10:3</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>My God will reject them - because they have not listened to him; - they shall be wanderers among the nations. - -</t>
+          <t>For now they will say: s We have no king, for we do not fear the Lord; and a kin g what could he do for us?</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Hosea 10:1</t>
+          <t>Hosea 10:4</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Israel is a luxuriant vine - that yields its fruit. - The more his fruit increased, - the more altars he built; - as his country improved, - he improved his pillars. -</t>
+          <t>They utter t mere words; with empt y oaths they make covenants; so u judgment springs up like poisonous weeds v in the furrows of the field.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Hosea 10:2</t>
+          <t>Hosea 10:5</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Their heart is false; - now they must bear their guilt. - The Lord will break down their altars - and destroy their pillars. -</t>
+          <t>The inhabitants of Samaria tremble for w the cal f of x Beth-aven. Its people mourn for it, and so do its idolatrous priest s those who rejoiced over it and y over its glor y for it has departe d from them.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Hosea 10:3</t>
+          <t>Hosea 10:6</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>For now they will say: - We have no king, - for we do not fear the Lord ; - and a kin16 g what could he do for us -</t>
+          <t>z The thing itself shall be carried to Assyria as tribute to a the great king. Ephraim shall be put to shame, and Israel shall be ashamed b of his idol.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Hosea 10:4</t>
+          <t>Hosea 10:7</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>They utter mere words; - with empt16 y oaths they make covenants; - so judgment springs up like poisonous weeds - in the furrows of the field. -</t>
+          <t>c Samaria s king shall perish like a twig on the face of the waters.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Hosea 10:5</t>
+          <t>Hosea 10:8</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>The inhabitants of Samaria tremble - for the cal16 f of Beth- aven. - Its people mourn for it, and so do its idolatrous priest16 s16 - those who rejoiced over it and over its glor16 y16 for it has departe16 d from them. -</t>
+          <t>The high places of x Aven, d the sin of Israel, shall be destroyed. e Thorn and thistle shall grow up on their altars, and f they shall say to the mountains, Cover us, and to the hills, Fall on us.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Hosea 10:6</t>
+          <t>Hosea 10:9</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>The thing itself shall be carried to Assyria - as tribute to the great king. - Ephraim shall be put to shame, - and Israel shall be ashamed of his idol. -</t>
+          <t>From g the days of Gibeah, you have sinned, O Israel; there they have continued. Shall not the war against the unjus t overtake them in Gibeah?</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Hosea 10:7</t>
+          <t>Hosea 10:10</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Samaria's king shall perish - like a twig on the face of the waters. -</t>
+          <t>h When I please, i I will discipline them, and nations shall be gathered against them when they are bound up for j their double iniquity.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Hosea 10:8</t>
+          <t>Hosea 10:11</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>The high places of Aven, the sin of Israel, - shall be destroyed. - Thorn and thistle shall grow up - on their altars, - and they shall say to the mountains, Cover us, - and to the hills, Fall on us. -</t>
+          <t>Ephraim was a trained calf that k loved to thresh, and I spared her fair neck; but I will put l Ephraim to the yoke; l Judah must plow; Jacob must harrow for himself.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Hosea 10:9</t>
+          <t>Hosea 10:12</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>From the days of Gibeah, you have sinned, O Israel; - there they have continued. Shall not the war against the unjus16 t overtake them in Gibeah -</t>
+          <t>m Sow for yourselves righteousness; reap steadfast love; n break up your fallow ground, for it is the time to seek the Lord, that he may come and o rain righteousness upon you.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Hosea 10:10</t>
+          <t>Hosea 10:13</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>When I please, I will discipline them, - and nations shall be gathered against them - when they are bound up for their double iniquity. -</t>
+          <t>p You have plowed iniquity; you have reaped injustice; you have eaten the fruit of lies. Because you have trusted in your own way and in the multitude of your warriors,</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Hosea 10:11</t>
+          <t>Hosea 10:14</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ephraim was a trained calf - that loved to thresh, and I spared her fair neck; - but I will put Ephraim to the yoke; - Judah must plow; Jacob must harrow for himself. -</t>
+          <t>therefore q the tumult of war shall arise among your people, and all your fortresses shall be destroyed, as r Shalman destroyed Beth-arbel on the day of battle; s mothers were dashed in pieces with their children.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Hosea 10:12</t>
+          <t>Hosea 10:15</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sow for yourselves righteousness; - reap steadfast love; break up your fallow ground, - for it is the time to seek the Lord , - that he may come and rain righteousness upon you. -</t>
+          <t>Thus it shall be done to you, O t Bethel, because of your great evil. At dawn a the king of Israel shall be utterly cut off. The Lord s Love for Israel 11:1 u When Israel was a child, v I loved him, and out of Egypt I w called x my son.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Hosea 10:13</t>
+          <t>Hosea 11:2</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>You have plowed iniquity; - you have reaped injustice; you have eaten the fruit of lies. - Because you have trusted in your own way - and in the multitude of your warriors, -</t>
+          <t>y The more they were called, the more they went away; z they kept sacrificing to the Baals and burning offerings to idols.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Hosea 10:14</t>
+          <t>Hosea 11:3</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>therefore the tumult of war shall arise among your people, - and all your fortresses shall be destroyed, - as Shalman destroyed Beth- arbel on the day of battle; - mothers were dashed in pieces with their children. -</t>
+          <t>Yet it was a I who taught Ephraim to walk; I took them up by their arms, but they did not know that b I healed them.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Hosea 10:15</t>
+          <t>Hosea 11:4</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Thus it shall be done to you, O Bethel, - because of your great evil. - At dawn the king of Israel - shall be utterly cut off. The Lord15's Love for Israel - -</t>
+          <t>c I led them with cords of kindness, with the bands of love, and d I became to them as one who eases the yoke on their jaws, and e I bent down to them and fed them.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Hosea 11:1</t>
+          <t>Hosea 11:5</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>When Israel was a child, I loved him, - and out of Egypt I called my son. -</t>
+          <t>f They shall no t return to the land of Egypt, but g Assyria shall be their king, h because i they have refused to return to me.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Hosea 11:2</t>
+          <t>Hosea 11:6</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>The more they were called, - the more they went away; - they kept sacrificing to the Baals - and burning offerings to idols. -</t>
+          <t>j The sword shall rage against their cities, consume the bars of their gates, and devour them k because of their own counsels.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Hosea 11:3</t>
+          <t>Hosea 11:7</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Yet it was I who taught Ephraim to walk; - I took them up by their arms, but they did not know that I healed them. -</t>
+          <t>My people are bent l on turning away from me, and though m they call out to the Most High, he shall not raise them up at all.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Hosea 11:4</t>
+          <t>Hosea 11:8</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>I led them with cords of kindness, - with the bands of love, - and I me to them as one who eases the yoke on their jaws, - and I nt down to them and fed them. -</t>
+          <t>How can I give you up, O Ephraim? How can I hand you over, O Israel? n How can I make you o like Admah? How can I treat you o like Zeboiim? p My heart recoils within me; my compassion grows warm and tender.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Hosea 11:5</t>
+          <t>Hosea 11:9</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>They shall no16 t return to the land of Egypt, - but Assyria shall be their king, because they have refused to return to me. -</t>
+          <t>I will not execute my burning anger; I will not again destroy Ephraim; q for I am God and not a man, r the Holy One in your midst, and I will not come in wrath.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Hosea 11:6</t>
+          <t>Hosea 11:10</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>The sword shall rage against their cities, - consume the bars of their gates, and devour them because of their own counsels. -</t>
+          <t>s They shall go after the Lord; t he will roar like a lion; when he roars, his children shall come trembling u from the west;</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Hosea 11:7</t>
+          <t>Hosea 11:11</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>My people are bent on turning away from me, - and though they call out to the Most High, - he shall not raise them up at all. -</t>
+          <t>they shall come trembling like birds v from Egypt, and w like doves x from the land of Assyria, and I will return them to their homes, declares the Lord.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Hosea 11:8</t>
+          <t>Hosea 11:12</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>How can I give you up, O phraim - How can I hand you over, O Israel - How can I make you like Admah - How can I treat you like Zeboiim - My heart recoils within me; - my compassion grows warm and tender. -</t>
+          <t>Ephraim y has surrounded me with lies, and the house of Israel with deceit, but Judah still walks with God and is faithful to the Holy One. 12:1 Ephraim feeds on the wind and pursues z the east wind all day long; they multiply y falsehood and violence; a they make a covenant with Assyria, and b oil is carried to Egypt. The Lord s Indictment of Israel and Judah</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Hosea 11:9</t>
+          <t>Hosea 12:2</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>I will not execute my burning anger; - I will not again destroy Ephraim; - for I am God and not a man, - the Holy One in your midst, - and I will not come in wrath. -</t>
+          <t>c The Lord has an indictment against Judah and will punish Jacob according to his ways; he will repay him according to his deeds.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Hosea 11:10</t>
+          <t>Hosea 12:3</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>They shall go after the Lord ; - he will roar like a lion; - when he roars, - his children shall come trembling from the west; -</t>
+          <t>d In the womb he took his brother by the heel, and in his manhood he strove with God.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Hosea 11:11</t>
+          <t>Hosea 12:4</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>they shall come trembling like birds from Egypt, - and like doves from the land of Assyria, and I will return them to their homes, declares the Lord . -</t>
+          <t>He strove with the angel and prevailed; he wept and sought his favor. e He met Go d at Bethel, and there God spoke with u s</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Hosea 12:1</t>
+          <t>Hosea 12:5</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ephraim feeds on the wind - and pursues the east wind all day long; - they multiply falsehood and violence; - they make a covenant with Assyria, - and oil is carried to Egypt. The Lord15's Indictment of Israel and Judah -</t>
+          <t>the Lord, the God of hosts, f the Lord is his memorial name:</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Hosea 12:2</t>
+          <t>Hosea 12:6</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>The Lord has an indictment against Judah - and will punish Jacob according to his ways; he will repay him according to his deeds. -</t>
+          <t>So you, g by the help of your God, return, h hold fast to love and justice, and wait continually for your God.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Hosea 12:3</t>
+          <t>Hosea 12:7</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>In the womb he took his brother by the heel, - and in his manhood he strove with God. -</t>
+          <t>A merchant, in whose hands are i false balances, he loves j to oppress.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Hosea 12:4</t>
+          <t>Hosea 12:8</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>He strove with the angel and prevailed; - he wept and sought his favor. - He met Go16 d 1 at Bethel, - and there God spoke with u16 s16 -</t>
+          <t>Ephraim has said, Ah, but k I am rich; I have found wealth for myself; in all my labors l they cannot find in me iniquity or sin.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Hosea 12:5</t>
+          <t>Hosea 12:9</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>the Lord , the God of hosts, - the Lord is his memorial name: -</t>
+          <t>m I am the Lord your God from the land of Egypt; I will again make you n dwell in tents, as in the days of the appointed feast.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Hosea 12:6</t>
+          <t>Hosea 12:10</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>So you, by the help of your God, return, - hold fast to love and justice, - and wait continually for your God. -</t>
+          <t>o I spoke to the prophets; it was I who multiplied p visions, and through the prophets gave parables.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Hosea 12:7</t>
+          <t>Hosea 12:11</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>A merchant, in whose hands are false balances, - he loves to oppress. -</t>
+          <t>q If there is iniquity in Gilead, they shall surely come to nothing: r in Gilgal they sacrifice bulls; s their altars also are like stone heaps t on the furrows of the field.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Hosea 12:8</t>
+          <t>Hosea 12:12</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ephraim has said, Ah, but I m rich; - I have found wealth for myself; - in all my labors they cannot find in me iniquity or sin.</t>
+          <t>u Jacob fled to the land of Aram; there Israel v served for a wife, and for a wife he guarded sheep.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Hosea 12:9</t>
+          <t>Hosea 12:13</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>I m the Lord your God - from the land of Egypt; - I will again make you dwell in tents, - as in the days of the appointed feast. -</t>
+          <t>By w a prophet x the Lord brought Israel up from Egypt, and by a prophet he was guarded.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Hosea 12:10</t>
+          <t>Hosea 12:14</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>I spoke to the prophets; - it was I who multiplied visions, and through the prophets gave parables. -</t>
+          <t>y Ephraim has given bitter provocation; so his Lord z will leave his bloodguilt on him a and will repay him for his disgraceful deeds. The Lord s Relentless Judgment on Israel 13:1 When Ephraim spoke, there was trembling; b he was exalted in Israel, but he incurred guilt c through Baal and died.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Hosea 12:11</t>
+          <t>Hosea 13:2</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>If there is iniquity in Gilead, - they shall surely come to nothing: - in Gilgal they sacrifice bulls; - their altars also are like stone heaps on the furrows of the field. -</t>
+          <t>And now they sin more and more, and d make for themselves metal images, idols skillfully made of their silver, e all of them the work of craftsmen. It is said of them, Those who offer human sacrifice f kiss calves!</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Hosea 12:12</t>
+          <t>Hosea 13:3</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Jacob fled to the land of Aram; - there Israel served for a wife, and for a wife he guarded sheep. -</t>
+          <t>Therefore they shall be g like the morning mist or g like the dew that goes early away, h like the chaff that swirls from the threshing floor or i like smoke from a window.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Hosea 12:13</t>
+          <t>Hosea 13:4</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>By a prophet the Lord brought Israel up from Egypt, - and by a prophet he was guarded. -</t>
+          <t>But j I am the Lord your God from the land of Egypt; k you know no God but me, and l besides me there is no savior.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Hosea 12:14</t>
+          <t>Hosea 13:5</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ephraim has given bitter provocation; - so his Lord will leave his bloodguilt on him - and will repay him for his disgraceful deeds. The Lord15's Relentless Judgment on Israel - -</t>
+          <t>m It was I who knew you in the wilderness, in the land of drought;</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Hosea 13:1</t>
+          <t>Hosea 13:6</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>When Ephraim spoke, there was trembling; - he was exalted in Israel, - but he incurred guilt through Baal and died. -</t>
+          <t>n but when they had grazed, they became full, o they were filled, and their heart was lifted up; o therefore they forgot me.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Hosea 13:2</t>
+          <t>Hosea 13:7</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>And now they sin more and more, - and make for themselves metal images, - idols skillfully made of their silver, - all of them the work of craftsmen. - It is said of them, - Those who offer human sacrifice kiss calves! -</t>
+          <t>So p I am to them like a lion; q like a leopard I will lurk beside the way.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Hosea 13:3</t>
+          <t>Hosea 13:8</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Therefore they shall be like the morning mist - or like the dew that goes early away, - like the chaff that swirls from the threshing floor - or like smoke from a window. -</t>
+          <t>I will fall upon them r like a bear robbed of her cubs; I will tear open their breast, and there I will devour them like a lion, s as a wild beast would rip them open.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Hosea 13:4</t>
+          <t>Hosea 13:9</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>But I m the Lord your God - from the land of Egypt; - you know no God but me, - and besides me there is no savior. -</t>
+          <t>He destroy s you, O Israel, for you are against me, against t your helper.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Hosea 13:5</t>
+          <t>Hosea 13:10</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>It was I who knew you in the wilderness, - in the land of drought; -</t>
+          <t>u Where now is your king, to save you in all your cities? Where are all your ruler s those of whom v you said, Give me a king and princes?</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Hosea 13:6</t>
+          <t>Hosea 13:11</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>but when they had grazed, they became full, - they were filled, and their heart was lifted up; therefore they forgot me. -</t>
+          <t>w I gave you a king in my anger, and x I took him away in my wrath.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Hosea 13:7</t>
+          <t>Hosea 13:12</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>So I m to them like a lion; - like a leopard I will lurk beside the way. -</t>
+          <t>The iniquity of Ephraim is y bound up; his sin is y kept in store.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Hosea 13:8</t>
+          <t>Hosea 13:13</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>I will fall upon them like a bear robbed of her cubs; - I will tear open their breast, - and there I will devour them like a lion, - as a wild beast would rip them open. -</t>
+          <t>z The pangs of childbirth come for him, but he is an unwise son, for at the right time he does not pre?sent himself a at the opening of the womb.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Hosea 13:9</t>
+          <t>Hosea 13:14</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>He destroy's you, O Israel, - for you are against me, against your helper. -</t>
+          <t>b I shall ransom them from the power of Sheol; b I shall redeem them from Death. c O d Death, where are your plagues? c O d Sheol, where is your sting? e Compassion is hidden from my eyes.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Hosea 13:10</t>
+          <t>Hosea 13:15</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Where now is your king, to save you in all your cities - Where are all your ruler16 s16 - those of whom you said, - Give me a king and princes -</t>
+          <t>Though f he may flourish among his brothers, g the east wind, the wind of the Lord, shall come, rising from the wilderness, h and his fountain shall dry up; his spring shall be parched; it shall strip i his treasury of every precious thing.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Hosea 13:11</t>
+          <t>Hosea 13:16</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>I gave you a king in my anger, - and I took him away in my wrath. -</t>
+          <t>Samaria j shall bear her guilt, because k she has rebelled against her God; they shall fall by the sword; l their little ones shall be dashed in pieces, and their m pregnant women ripped open. A Plea to Return to the Lord 14:1 n Return, O Israel, to the Lord your God, for o you have stumbled because of your iniquity.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Hosea 13:12</t>
+          <t>Hosea 14:2</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>The iniquity of Ephraim is bound up; - his sin is kept in store. -</t>
+          <t>Take with you words and return to the Lord; say to him, Take away all iniquity; accept p what is good, and we will pay with bulls q the vow s of our lips.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Hosea 13:13</t>
+          <t>Hosea 14:3</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>The pangs of childbirth come for him, - but he is an unwise son, - for at the right time he does not pre173 sent himself - at the opening of the womb. -</t>
+          <t>r Assyria shall not save us; s we will not ride on horses; and t we will say no more, Our God, to the work of our hands. u In you the orphan finds mercy.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Hosea 13:14</t>
+          <t>Hosea 14:4</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>I shall ransom them from the power of Sheol; - I shall redeem them from Death. - O Death, where are your plagues - O Sheol, where is your sting - Compassion is hidden from my eyes. -</t>
+          <t>I v will heal their apostasy; w I will love them freely, for my anger has turned from them.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Hosea 13:15</t>
+          <t>Hosea 14:5</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Though he may flourish among his brothers, - the east wind, the wind of the Lord , shall come, rising from the wilderness, - and his fountain shall dry up; - his spring shall be parched; - it shall strip his treasury - of every precious thing. -</t>
+          <t>x I will be like the dew to Israel; y he shall blossom like the lily; he shall take root like the trees z of Lebanon;</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Hosea 14:1</t>
+          <t>Hosea 14:6</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Return, O Israel, to the Lord your God, - for you have stumbled because of your iniquity. -</t>
+          <t>his shoots shall spread out; his beauty shall be a like the olive, and his fragrance like Lebanon.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Hosea 14:2</t>
+          <t>Hosea 14:7</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Take with you words - and return to the Lord ; - say to him, - Take away all iniquity; - accept what is good, - and we will pay with bulls the vow16's of our lips. -</t>
+          <t>They shall return and b dwell beneath m y shadow; they shall flourish like the grain; they shall blossom like the vine; their fame shall be like the wine of Lebanon.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Hosea 14:3</t>
+          <t>Hosea 14:8</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Assyria shall not save us; - we will not ride on horses; - and we will say no more, Our God, - to the work of our hands. - In you the orphan finds mercy. -</t>
+          <t>O c Ephraim, what have I to do with idols? It is I who answer and look after you. I am like an evergreen cypress; d from me comes your fruit.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Hosea 14:4</t>
+          <t>Hosea 14:9</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>I will heal their apostasy; - I will love them freely, for my anger has turned from them. -</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Hosea 14:5</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>I will be like the dew to Israel; - he shall blossom like the lily; he shall take root like the trees of Lebanon; -</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Hosea 14:6</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>his shoots shall spread out; - his beauty shall be like the olive, and his fragrance like Lebanon. -</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Hosea 14:7</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>They shall return and dwell beneath m16 y shadow; - they shall flourish like the grain; - they shall blossom like the vine; - their fame shall be like the wine of Lebanon. -</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Hosea 14:8</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>O Ephraim, what have I to do with idols - It is I who answer and look after you. - I m like an evergreen cypress; - from me comes your fruit. -</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Hosea 14:9</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Whoever is wise, let him understand these things; - whoever is discerning, let him know them; - for the ways of the Lord are right, - and the upright walk in them, - but transgressors stumble in them.</t>
+          <t>e Whoever is wise, let him understand these things; whoever is discerning, let him know them; for the ways of the Lord are right, and f the upright walk in them, f but transgressors stumble in them.</t>
         </is>
       </c>
     </row>
